--- a/Information/Team/TeamFampay.xlsx
+++ b/Information/Team/TeamFampay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Clean\Desktop\Dev Drive\Fampay-In-Depth-Analysis\Information\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835C992-3EA9-4574-9B5B-B77FB4369497}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9662DC-8847-4533-9C3C-DF49B2E8969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,13 +1288,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1306,13 +1318,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1593,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,16 +3301,16 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3504,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C697ABA-7666-40A6-8CD3-28FC6023FD9E}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
